--- a/data/preprocessed/video/S1_sway.xlsx
+++ b/data/preprocessed/video/S1_sway.xlsx
@@ -18618,7 +18618,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3823511622749541</v>
+        <v>0.3822705187395415</v>
       </c>
       <c r="C99" t="n">
         <v>0.02832604181367311</v>
@@ -18762,7 +18762,7 @@
         <v>0</v>
       </c>
       <c r="AX99" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY99" t="n">
         <v>0</v>
@@ -20838,7 +20838,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5576702082619303</v>
+        <v>0.5575895647265177</v>
       </c>
       <c r="C111" t="n">
         <v>0.02336646438579867</v>
@@ -20982,7 +20982,7 @@
         <v>0</v>
       </c>
       <c r="AX111" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY111" t="n">
         <v>0</v>
@@ -36387,7 +36387,7 @@
         <v>0.03066470434063829</v>
       </c>
       <c r="E195" t="n">
-        <v>0.03683393479970162</v>
+        <v>0.03675329126428903</v>
       </c>
       <c r="F195" t="n">
         <v>0.0488094998084716</v>
@@ -36531,7 +36531,7 @@
         <v>0</v>
       </c>
       <c r="BA195" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="BB195" t="n">
         <v>0</v>
@@ -40448,7 +40448,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.371585250297373</v>
+        <v>0.3715046067619605</v>
       </c>
       <c r="C217" t="n">
         <v>0.04108788129271587</v>
@@ -40592,7 +40592,7 @@
         <v>0</v>
       </c>
       <c r="AX217" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY217" t="n">
         <v>0</v>
@@ -40827,7 +40827,7 @@
         <v>0.04469667950242939</v>
       </c>
       <c r="E219" t="n">
-        <v>0.03961613677143606</v>
+        <v>0.03953549323602347</v>
       </c>
       <c r="F219" t="n">
         <v>0.02050361887865164</v>
@@ -40971,7 +40971,7 @@
         <v>0</v>
       </c>
       <c r="BA219" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="BB219" t="n">
         <v>0</v>
@@ -43593,7 +43593,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.6120239511300175</v>
+        <v>0.6119433075946049</v>
       </c>
       <c r="C234" t="n">
         <v>0.03514042055603717</v>
@@ -43737,7 +43737,7 @@
         <v>0</v>
       </c>
       <c r="AX234" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY234" t="n">
         <v>0</v>
@@ -65617,7 +65617,7 @@
         <v>0.05219652829580049</v>
       </c>
       <c r="E353" t="n">
-        <v>0.03665248684502329</v>
+        <v>0.03657184330961069</v>
       </c>
       <c r="F353" t="n">
         <v>0.03298320598375033</v>
@@ -65761,7 +65761,7 @@
         <v>0</v>
       </c>
       <c r="BA353" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="BB353" t="n">
         <v>0</v>
